--- a/profiles/gsq/scripts/geochemxl/tests/data/GeochemXL-v3.0-SURFACE_LITHOLOGY_01_valid.xlsx
+++ b/profiles/gsq/scripts/geochemxl/tests/data/GeochemXL-v3.0-SURFACE_LITHOLOGY_01_valid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Work/gsq/gsq-geochem/profiles/gsq/scripts/geochemxl/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45388A8A-7C90-604C-86FE-9E4DED202E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52CAF2B-8E12-B742-83ED-E7B96CE3C6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="1360" windowWidth="99100" windowHeight="23280" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,10 +95,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="TANG Joseph - Personal View" guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1928" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="842" activeSheetId="13"/>
+    <customWorkbookView name="HOY Derek - Personal View" guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="917" activeSheetId="6" showComments="commIndAndComment"/>
+    <customWorkbookView name="KELLY Vance - Personal View" guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" mergeInterval="0" personalView="1" maximized="1" xWindow="2391" yWindow="-678" windowWidth="2418" windowHeight="1368" tabRatio="842" activeSheetId="1" showComments="commIndAndComment"/>
     <customWorkbookView name="DAVIES Rhys - Personal View" guid="{853B6239-A439-411F-9927-AA08BF431DBB}" mergeInterval="0" personalView="1" xWindow="2926" yWindow="109" windowWidth="2700" windowHeight="1354" tabRatio="842" activeSheetId="9"/>
-    <customWorkbookView name="KELLY Vance - Personal View" guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" mergeInterval="0" personalView="1" maximized="1" xWindow="2391" yWindow="-678" windowWidth="2418" windowHeight="1368" tabRatio="842" activeSheetId="1" showComments="commIndAndComment"/>
-    <customWorkbookView name="HOY Derek - Personal View" guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="917" activeSheetId="6" showComments="commIndAndComment"/>
-    <customWorkbookView name="TANG Joseph - Personal View" guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1928" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="842" activeSheetId="13"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="245">
   <si>
     <t>FIELD</t>
   </si>
@@ -850,6 +850,9 @@
   </si>
   <si>
     <t>SS12346</t>
+  </si>
+  <si>
+    <t>123457</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1971,7 @@
   <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2847,7 +2850,7 @@
       </c>
       <c r="C10" s="75"/>
       <c r="D10" s="76" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="E10" s="77">
         <v>1234567</v>
@@ -3167,23 +3170,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="50" topLeftCell="Q1">
-      <selection activeCell="U14" sqref="U14"/>
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="70" topLeftCell="X1">
+      <selection activeCell="AF10" sqref="AF10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="80">
+      <selection activeCell="C2" sqref="C2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="55" topLeftCell="Q1">
       <selection activeCell="D8" sqref="D8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="80">
-      <selection activeCell="C2" sqref="C2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="70" topLeftCell="X1">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="50" topLeftCell="Q1">
+      <selection activeCell="U14" sqref="U14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -6026,22 +6029,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -9712,22 +9715,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -16726,22 +16729,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -24818,22 +24821,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -25356,25 +25359,25 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25801,25 +25804,25 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25859,10 +25862,10 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" state="veryHidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" state="veryHidden">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" state="veryHidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" state="veryHidden">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -26102,15 +26105,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <AssignedTo xmlns="cc9fd5b5-cf46-4eda-9201-7118bc1c1603">
@@ -26122,6 +26116,15 @@
     </AssignedTo>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26144,14 +26147,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEE68A9-1E3D-4013-A8AF-E88F960C4957}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9C12B8D-B909-479A-8F46-E01C349A93B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
@@ -26166,4 +26161,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEE68A9-1E3D-4013-A8AF-E88F960C4957}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>